--- a/quan.java/config/excel/道具/武器.xlsx
+++ b/quan.java/config/excel/道具/武器.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\config\excel\道具\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BCC5D4-D234-4BED-843B-65BC02D333B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC20A7-F14C-44F7-9B55-FB834B92456D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -167,6 +167,29 @@
   </si>
   <si>
     <t>常量Key</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用效果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseEffect</t>
+  </si>
+  <si>
+    <t>UseEffect2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释:类名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释:bbb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释:aaa</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1119,23 +1142,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="18.25" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="18" width="18.75" customWidth="1"/>
-    <col min="19" max="19" width="30.625" customWidth="1"/>
-    <col min="20" max="20" width="27.625" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="14" max="14" width="18.375" customWidth="1"/>
+    <col min="19" max="19" width="23" customWidth="1"/>
+    <col min="20" max="21" width="18.75" customWidth="1"/>
+    <col min="22" max="22" width="30.625" customWidth="1"/>
+    <col min="23" max="23" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1149,55 +1172,64 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>38</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>38</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1208,34 +1240,34 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
@@ -1243,14 +1275,23 @@
       <c r="P2" t="s">
         <v>14</v>
       </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
       <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>14</v>
       </c>
+      <c r="W2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1260,164 +1301,185 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>3413</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>54</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>34</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>11</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>43</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>44</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>43</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>21</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7</v>
+      </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>522</v>
+      </c>
+      <c r="G4">
+        <v>3324</v>
+      </c>
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>88</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>33</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>25</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>4</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>11</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>43</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
         <v>40</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>41</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>26</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>7</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>22</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>32</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>2</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>11</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>43</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
         <v>40</v>
       </c>
-      <c r="R5" t="s">
+      <c r="U5" t="s">
         <v>42</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>31</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>32</v>
       </c>
     </row>

--- a/quan.java/config/excel/道具/武器.xlsx
+++ b/quan.java/config/excel/道具/武器.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\config\excel\道具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\quan\quan.java\config\excel\道具\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC20A7-F14C-44F7-9B55-FB834B92456D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A52B625-5F65-4E07-981C-8A2BA12B7682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="1" r:id="rId1"/>
@@ -174,22 +174,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>UseEffect2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释:类名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释:bbb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释:aaa</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>UseEffect</t>
-  </si>
-  <si>
-    <t>UseEffect2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释:类名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释:bbb</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释:aaa</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1145,7 +1146,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1240,13 +1241,13 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
         <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -1302,10 +1303,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3">
-        <v>3413</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -1367,7 +1365,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>522</v>
